--- a/cronograma.xlsx
+++ b/cronograma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elvis\Documents\GitHub\national-bank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9CD462-4107-4A7F-9C34-BF65702857C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC83E31-CDCB-40ED-90A5-04CFE41ED434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -132,6 +132,7 @@
     <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +416,7 @@
   <dimension ref="B3:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +442,7 @@
       <c r="C4" s="4">
         <v>45473</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>45477</v>
       </c>
     </row>
@@ -452,7 +453,7 @@
       <c r="C5" s="4">
         <v>45473</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>45477</v>
       </c>
     </row>
@@ -463,7 +464,7 @@
       <c r="C6" s="4">
         <v>45473</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>45477</v>
       </c>
     </row>
@@ -474,7 +475,7 @@
       <c r="C7" s="4">
         <v>45473</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>45479</v>
       </c>
     </row>
